--- a/docs/StructureDefinition-VA.MHV.PHR.SPlabReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.SPlabReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="565">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -511,25 +511,25 @@
     <t>open</t>
   </si>
   <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
     <t>{StationNbr} and {LabReportTO.id}</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier:TOid</t>
-  </si>
-  <si>
-    <t>TOid</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier:TOid.id</t>
@@ -760,6 +760,45 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
+    <t>DiagnosticReport.identifier:casenum</t>
+  </si>
+  <si>
+    <t>casenum</t>
+  </si>
+  <si>
+    <t>LabReportTO.caseNumber</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.system</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.value</t>
+  </si>
+  <si>
+    <t>`CaseNum` | `.` | {LabReportTO.casenum}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.period</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:casenum.assigner</t>
+  </si>
+  <si>
     <t>DiagnosticReport.basedOn</t>
   </si>
   <si>
@@ -842,7 +881,7 @@
     <t>DiagnosticReport.basedOn.identifier</t>
   </si>
   <si>
-    <t>caseNumber</t>
+    <t>Logical reference, when literal reference is not known</t>
   </si>
   <si>
     <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
@@ -855,9 +894,6 @@
   </si>
   <si>
     <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>LabReportTO.caseNumber</t>
   </si>
   <si>
     <t>.identifier</t>
@@ -1260,11 +1296,11 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
-    <t>LabReportTO.facility</t>
+    <t>Responsible Diagnostic Service</t>
   </si>
   <si>
     <t>The diagnostic service that is responsible for issuing the report.</t>
@@ -1289,6 +1325,24 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.reference</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer.display</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -2064,7 +2118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3395,30 +3449,30 @@
         <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>149</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>150</v>
@@ -3516,19 +3570,19 @@
         <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -4474,11 +4528,13 @@
         <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4488,28 +4544,28 @@
         <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4558,7 +4614,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4573,27 +4629,27 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>82</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4705,10 +4761,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4822,10 +4878,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4833,33 +4889,35 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4868,7 +4926,7 @@
         <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>82</v>
@@ -4883,13 +4941,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4907,7 +4965,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4916,7 +4974,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4928,10 +4986,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4939,10 +4997,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4965,18 +5023,20 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -5003,10 +5063,10 @@
         <v>197</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5024,7 +5084,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5045,10 +5105,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5056,10 +5116,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5073,7 +5133,7 @@
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
@@ -5082,18 +5142,20 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5105,7 +5167,7 @@
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -5141,7 +5203,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5153,19 +5215,19 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5173,10 +5235,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5202,13 +5264,13 @@
         <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5222,7 +5284,7 @@
         <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>82</v>
@@ -5258,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5279,10 +5341,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5290,10 +5352,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5301,33 +5363,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5351,11 +5411,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5373,56 +5435,56 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
@@ -5431,16 +5493,16 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5466,35 +5528,37 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5503,63 +5567,63 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5568,7 +5632,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5583,13 +5647,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5607,7 +5671,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5625,59 +5689,55 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5687,7 +5747,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5702,13 +5762,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5726,19 +5786,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5747,53 +5807,53 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5819,66 +5879,66 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>316</v>
+        <v>171</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5889,7 +5949,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5898,18 +5958,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5958,7 +6020,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5967,10 +6029,10 @@
         <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5982,7 +6044,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5990,21 +6052,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6013,19 +6075,19 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6051,43 +6113,43 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6099,7 +6161,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6107,10 +6169,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6124,7 +6186,7 @@
         <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>82</v>
@@ -6133,20 +6195,18 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6155,7 +6215,7 @@
         <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>82</v>
@@ -6194,13 +6254,13 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
@@ -6209,16 +6269,16 @@
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6226,10 +6286,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6237,13 +6297,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6255,17 +6315,15 @@
         <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6313,7 +6371,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6328,16 +6386,16 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>339</v>
+        <v>135</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6345,14 +6403,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6365,23 +6423,23 @@
         <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6406,13 +6464,11 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6430,56 +6486,56 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>350</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>82</v>
@@ -6488,20 +6544,18 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6525,37 +6579,35 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6564,35 +6616,37 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>361</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>92</v>
@@ -6607,20 +6661,18 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6629,7 +6681,7 @@
         <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>82</v>
@@ -6644,38 +6696,40 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6684,34 +6738,34 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>374</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>92</v>
@@ -6726,20 +6780,18 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>377</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6748,7 +6800,7 @@
         <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>82</v>
@@ -6763,13 +6815,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6787,50 +6839,50 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>374</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>92</v>
@@ -6845,20 +6897,18 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6882,13 +6932,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6906,78 +6956,74 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>389</v>
+        <v>328</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>393</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>394</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7025,53 +7071,53 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>391</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>401</v>
+        <v>171</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>404</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7080,23 +7126,21 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>405</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>406</v>
+        <v>139</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>407</v>
+        <v>174</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7132,19 +7176,19 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>403</v>
+        <v>177</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7156,30 +7200,30 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>401</v>
+        <v>171</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>410</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>410</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7190,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>93</v>
@@ -7199,22 +7243,22 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7224,7 +7268,7 @@
         <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>82</v>
@@ -7263,7 +7307,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7278,16 +7322,16 @@
         <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>416</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7295,21 +7339,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>93</v>
@@ -7318,22 +7362,22 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>420</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7382,13 +7426,13 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
@@ -7397,16 +7441,16 @@
         <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>427</v>
+        <v>351</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7414,44 +7458,44 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7499,13 +7543,13 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
@@ -7514,31 +7558,31 @@
         <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7557,17 +7601,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>436</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>437</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7616,13 +7662,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -7634,28 +7680,28 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7665,25 +7711,29 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>167</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7719,19 +7769,17 @@
         <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7740,67 +7788,71 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>139</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7848,77 +7900,77 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>177</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>147</v>
+        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7967,77 +8019,77 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8086,13 +8138,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8101,27 +8153,27 @@
         <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8129,7 +8181,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>92</v>
@@ -8141,16 +8193,16 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>455</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>168</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
+        <v>169</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8201,10 +8253,10 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>92</v>
@@ -8213,7 +8265,7 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8225,7 +8277,7 @@
         <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>458</v>
+        <v>171</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8233,21 +8285,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>460</v>
+        <v>137</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8259,18 +8311,18 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>461</v>
+        <v>139</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8306,31 +8358,31 @@
         <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>459</v>
+        <v>177</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8339,10 +8391,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>465</v>
+        <v>171</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8350,10 +8402,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8364,7 +8416,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8373,18 +8425,20 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>265</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8409,13 +8463,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8433,16 +8487,16 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>104</v>
@@ -8454,10 +8508,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>471</v>
+        <v>135</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8465,10 +8519,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8479,32 +8533,30 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>473</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>474</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8528,13 +8580,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8552,13 +8604,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>472</v>
+        <v>276</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -8573,10 +8625,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8584,10 +8636,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8607,18 +8659,20 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8667,7 +8721,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8679,7 +8733,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -8691,7 +8745,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8699,21 +8753,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -8722,19 +8776,19 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8772,31 +8826,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -8808,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8816,21 +8870,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -8842,17 +8896,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>112</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -8862,10 +8918,10 @@
         <v>82</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>82</v>
@@ -8877,13 +8933,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -8901,13 +8957,13 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -8916,27 +8972,27 @@
         <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>490</v>
+        <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8947,29 +9003,31 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O59" t="s" s="2">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -8982,7 +9040,7 @@
         <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>82</v>
@@ -8994,13 +9052,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9018,13 +9076,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9033,16 +9091,16 @@
         <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>499</v>
+        <v>361</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9050,24 +9108,24 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9076,19 +9134,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9137,13 +9195,13 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>506</v>
+        <v>436</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
@@ -9152,16 +9210,16 @@
         <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9169,10 +9227,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9192,23 +9250,21 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9220,7 +9276,7 @@
         <v>82</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>82</v>
@@ -9256,13 +9312,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>517</v>
+        <v>446</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -9277,10 +9333,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9288,14 +9344,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9314,19 +9370,17 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9375,13 +9429,13 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
@@ -9396,10 +9450,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>527</v>
+        <v>445</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9407,10 +9461,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>528</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>528</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9421,7 +9475,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9430,23 +9484,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>501</v>
+        <v>167</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>529</v>
+        <v>168</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9494,7 +9544,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>533</v>
+        <v>170</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9506,7 +9556,7 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9518,7 +9568,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>534</v>
+        <v>171</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9526,21 +9576,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>535</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>535</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9549,21 +9599,21 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>536</v>
+        <v>139</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9575,7 +9625,7 @@
         <v>82</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>82</v>
@@ -9611,19 +9661,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>540</v>
+        <v>177</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -9635,7 +9685,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>541</v>
+        <v>171</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9643,43 +9693,45 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>542</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>542</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>543</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>545</v>
+        <v>147</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9728,38 +9780,1799 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
+      <c r="B78" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AI78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AK65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AO65" t="s" s="2">
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO65">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9769,7 +11582,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.SPlabReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.SPlabReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1296,7 +1296,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1306,13 +1306,13 @@
     <t>The diagnostic service that is responsible for issuing the report.</t>
   </si>
   <si>
-    <t>This is not necessarily the source of the atomic data items or the entity that interpreted the results. It is the entity that takes responsibility for the clinical report.</t>
+    <t>Lab as Organization, Pathologist as Practitioner</t>
   </si>
   <si>
     <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
   </si>
   <si>
-    <t>GetLocation(LabReportTO.facility or LabReportTO.result.labSiteId)</t>
+    <t>{Pathologist}</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -2137,7 +2137,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="193.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2162,7 +2162,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.14453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.4140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="118.1328125" customWidth="true" bestFit="true"/>
